--- a/实验1&8/不同距离.xlsx
+++ b/实验1&8/不同距离.xlsx
@@ -508,16 +508,16 @@
         <v>1.044915864446885</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
         <v>0.01373972310882676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02555528155351264</v>
+        <v>0.005714334673780069</v>
       </c>
     </row>
     <row r="3">
@@ -578,16 +578,16 @@
         <v>7.012587255558285</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
         <v>0.0004487972328854894</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02648129010369073</v>
+        <v>0.01324064505184537</v>
       </c>
     </row>
     <row r="5">
@@ -613,16 +613,16 @@
         <v>12.51778912349358</v>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0004133134439772146</v>
+        <v>0.00116350099086393</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01679083641353437</v>
+        <v>0.01977829391300409</v>
       </c>
     </row>
     <row r="6">
@@ -683,16 +683,16 @@
         <v>43.6360966476487</v>
       </c>
       <c r="H7" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005058234589057076</v>
+        <v>0.002093125046207289</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03238741470005122</v>
+        <v>0.03353567751181587</v>
       </c>
     </row>
   </sheetData>
